--- a/出库/枕头的出库(更新4.19).xlsx
+++ b/出库/枕头的出库(更新4.19).xlsx
@@ -411,7 +411,7 @@
     <t>4.1</t>
   </si>
   <si>
-    <t>4.1-4.18</t>
+    <t>4.1-4.19</t>
   </si>
 </sst>
 </file>
@@ -1587,12 +1587,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
+      <selection pane="bottomLeft" activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5662,31 +5662,31 @@
         <v>13</v>
       </c>
       <c r="C107" s="21">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D107" s="21">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="E107" s="21">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F107" s="21">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G107" s="21">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H107" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" s="21">
         <v>40</v>
       </c>
       <c r="J107" s="21">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K107" s="21">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5698,27 +5698,27 @@
       </c>
       <c r="C108" s="23">
         <f>C106-C107</f>
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="D108" s="23">
         <f t="shared" ref="D108:J108" si="49">D106-D107</f>
-        <v>2514</v>
+        <v>2471</v>
       </c>
       <c r="E108" s="23">
         <f t="shared" si="49"/>
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F108" s="23">
         <f t="shared" si="49"/>
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G108" s="23">
         <f t="shared" si="49"/>
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H108" s="23">
         <f t="shared" si="49"/>
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I108" s="23">
         <f t="shared" si="49"/>
@@ -5726,11 +5726,16 @@
       </c>
       <c r="J108" s="23">
         <f t="shared" si="49"/>
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="K108" s="23">
         <f>K106-K107+1</f>
-        <v>131</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9">
+      <c r="I128" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
